--- a/public_html/archivos/2010_1077_EAU.xlsx
+++ b/public_html/archivos/2010_1077_EAU.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="193">
   <si>
     <t>INSTITUCION</t>
   </si>
@@ -285,9 +285,6 @@
     <t>GASTO_MAT_PRIMA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD TECNOLÓGICA ECOTEC</t>
   </si>
   <si>
@@ -372,12 +369,6 @@
     <t/>
   </si>
   <si>
-    <t>07746</t>
-  </si>
-  <si>
-    <t>VIGENTE</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN DE EMPRESAS ENFASIS ADMINISTRACIÓN DE RECURSOS HUMANOS</t>
   </si>
   <si>
@@ -393,27 +384,18 @@
     <t>ADMINISTRACIÓN EN TALENTO HUMANO</t>
   </si>
   <si>
-    <t>07916</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN DE EMPRESAS ENFASIS ADMINISTRACIÓN DE VENTAS</t>
   </si>
   <si>
     <t>INGENIERO EN ADMINISTRACIÓN DE EMPRESAS ENFASIS ADMINISTRACIÓN DE VENTAS</t>
   </si>
   <si>
-    <t>07922</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN DE EMPRESAS ENFASIS GESTION EMPRESARIAL</t>
   </si>
   <si>
     <t>INGENIERO EN ADMINISTRACIÓN DE EMPRESAS ENFASIS GESTION EMPRESARIAL</t>
   </si>
   <si>
-    <t>07747</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN DE EMPRESAS ENFASIS GESTION FINANCIERA</t>
   </si>
   <si>
@@ -426,18 +408,12 @@
     <t>ADMINISTRACIÓN MENCIÓN FINANZAS</t>
   </si>
   <si>
-    <t>07914</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN ADMINISTRACIÓN DE EMPRESAS ENFASIS NEGOCIOS INTERNACIONALES</t>
   </si>
   <si>
     <t>INGENIERO EN ADMINISTRACIÓN DE EMPRESAS ENFASIS NEGOCIOS INTERNACIONALES</t>
   </si>
   <si>
-    <t>07915</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN SISTEMAS COMPUTACIONALES Y TELECOMUNICACIONES</t>
   </si>
   <si>
@@ -459,27 +435,18 @@
     <t>TECNOLOGÍA, INFORMÁTICA, COMUNICACIONES</t>
   </si>
   <si>
-    <t>07920</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN SISTEMAS ENFASIS SISTEMAS</t>
   </si>
   <si>
     <t>INGENIERO EN SISTEMAS ENFASIS  SISTEMAS</t>
   </si>
   <si>
-    <t>07748</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN SISTEMAS ENFASIS TECNOLOGIAS PARA INTERNET</t>
   </si>
   <si>
     <t>INGENIERO EN SISTEMAS ENFASIS TECNOLOGIAS PARA INTERNET</t>
   </si>
   <si>
-    <t>07921</t>
-  </si>
-  <si>
     <t>MARKETING Y COMUNICACION</t>
   </si>
   <si>
@@ -495,9 +462,6 @@
     <t>MARKETING</t>
   </si>
   <si>
-    <t>07919</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN COMUNICACIÓN ENFASIS COMUNICACIÓN EMPRESARIAL</t>
   </si>
   <si>
@@ -510,27 +474,18 @@
     <t>COMUNICACIÓN SOCIAL Y PERIODISMO</t>
   </si>
   <si>
-    <t>07939</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN COMUNICACIÓN ENFASIS PUBLICIDAD</t>
   </si>
   <si>
     <t>LICENCIADO EN COMUNICACIÓN ENFASIS PUBLICIDAD</t>
   </si>
   <si>
-    <t>07754</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN COMUNICACIÓN ENFASIS RELACIONES PÚBLICAS</t>
   </si>
   <si>
     <t>LICENCIADO EN COMUNICACIÓN ENFASIS RELACIONES PÚBLICAS</t>
   </si>
   <si>
-    <t>07940</t>
-  </si>
-  <si>
     <t>TURISMO Y HOTELERIA</t>
   </si>
   <si>
@@ -564,9 +519,6 @@
     <t>004496 CONESUP DAJ P 2008  28/10/2008</t>
   </si>
   <si>
-    <t>07752</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN PLANIFICACIÓN TURISTICA ENFASIS OPERACIÓN TURISTICA</t>
   </si>
   <si>
@@ -576,9 +528,6 @@
     <t>LEY CREACIÓN UNIVERSIDAD REG OFICIAL 419 DICIEMBRE 18 DE 2008</t>
   </si>
   <si>
-    <t>07934</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN PLANIFICACIÓN TURISTICA MENCIÓN PLANIFICACIÓN TURISTICA</t>
   </si>
   <si>
@@ -588,9 +537,6 @@
     <t>LEY CREACIÓN UNIVERSIDAD REG OFICIAL 419 DICIEMBRE 18 DE 2009</t>
   </si>
   <si>
-    <t>07933</t>
-  </si>
-  <si>
     <t>SAMBORONDON</t>
   </si>
   <si>
@@ -625,9 +571,6 @@
   </si>
   <si>
     <t>OFICIO 004496 CONESUP DAJ P 2008  28/10/2008</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>DERECHO ENFASIS GOBERNABILIDAD Y GERENCIA POLITICA</t>
@@ -1062,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM25"/>
+  <dimension ref="A1:CK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,13 +1092,11 @@
     <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1165,9 +1106,9 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1177,7 +1118,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,86 +1386,80 @@
       <c r="CK5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1077</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="Q6" s="5">
         <v>65</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U6" s="5">
         <v>1</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="Y6" s="5">
         <v>0</v>
       </c>
@@ -1535,46 +1470,46 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" s="4">
         <v>2006</v>
       </c>
       <c r="AG6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM6" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP6" s="4">
         <v>4.5</v>
@@ -1589,22 +1524,22 @@
         <v>245</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU6" s="4">
         <v>3360</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ6" s="4">
         <v>3</v>
@@ -1679,19 +1614,19 @@
         <v>30</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC6" s="4">
         <v>4</v>
@@ -1709,10 +1644,10 @@
         <v>3</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ6" s="7">
         <v>0</v>
@@ -1720,85 +1655,79 @@
       <c r="CK6" s="7">
         <v>0</v>
       </c>
-      <c r="CL6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1077</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="5">
         <v>65</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U7" s="5">
         <v>4</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y7" s="5">
         <v>0</v>
@@ -1810,46 +1739,46 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF7" s="4">
         <v>2006</v>
       </c>
       <c r="AG7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AM7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM7" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP7" s="4">
         <v>4.5</v>
@@ -1864,22 +1793,22 @@
         <v>245</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU7" s="4">
         <v>3360</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ7" s="4">
         <v>3</v>
@@ -1954,19 +1883,19 @@
         <v>30</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC7" s="4">
         <v>2</v>
@@ -1984,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ7" s="7">
         <v>0</v>
@@ -1995,85 +1924,79 @@
       <c r="CK7" s="7">
         <v>0</v>
       </c>
-      <c r="CL7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM7" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1077</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="5">
         <v>65</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U8" s="5">
         <v>4</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="5">
         <v>0</v>
@@ -2085,46 +2008,46 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF8" s="4">
         <v>2006</v>
       </c>
       <c r="AG8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP8" s="4">
         <v>4.5</v>
@@ -2139,22 +2062,22 @@
         <v>245</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU8" s="4">
         <v>3360</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ8" s="4">
         <v>3</v>
@@ -2229,19 +2152,19 @@
         <v>10</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC8" s="4">
         <v>0</v>
@@ -2259,10 +2182,10 @@
         <v>2</v>
       </c>
       <c r="CH8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ8" s="7">
         <v>0</v>
@@ -2270,85 +2193,79 @@
       <c r="CK8" s="7">
         <v>0</v>
       </c>
-      <c r="CL8" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1077</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="5">
         <v>65</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U9" s="5">
         <v>4</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y9" s="5">
         <v>0</v>
@@ -2360,46 +2277,46 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF9" s="4">
         <v>2006</v>
       </c>
       <c r="AG9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AK9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM9" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP9" s="4">
         <v>4.5</v>
@@ -2414,22 +2331,22 @@
         <v>245</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU9" s="4">
         <v>3360</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ9" s="4">
         <v>3</v>
@@ -2504,19 +2421,19 @@
         <v>144</v>
       </c>
       <c r="BX9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC9" s="4">
         <v>28</v>
@@ -2534,10 +2451,10 @@
         <v>40</v>
       </c>
       <c r="CH9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ9" s="7">
         <v>0</v>
@@ -2545,85 +2462,79 @@
       <c r="CK9" s="7">
         <v>0</v>
       </c>
-      <c r="CL9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM9" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1077</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="5">
         <v>65</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U10" s="5">
         <v>4</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
@@ -2635,46 +2546,46 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF10" s="4">
         <v>2006</v>
       </c>
       <c r="AG10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM10" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP10" s="4">
         <v>4.5</v>
@@ -2689,22 +2600,22 @@
         <v>245</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU10" s="4">
         <v>3360</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ10" s="4">
         <v>3</v>
@@ -2779,19 +2690,19 @@
         <v>30</v>
       </c>
       <c r="BX10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC10" s="4">
         <v>8</v>
@@ -2809,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="CH10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ10" s="7">
         <v>0</v>
@@ -2820,85 +2731,79 @@
       <c r="CK10" s="7">
         <v>0</v>
       </c>
-      <c r="CL10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="CM10" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1077</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="5">
         <v>65</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U11" s="5">
         <v>4</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y11" s="5">
         <v>0</v>
@@ -2910,46 +2815,46 @@
         <v>0</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF11" s="4">
         <v>2006</v>
       </c>
       <c r="AG11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP11" s="4">
         <v>4.5</v>
@@ -2964,22 +2869,22 @@
         <v>245</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU11" s="4">
         <v>3360</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ11" s="4">
         <v>3</v>
@@ -3054,19 +2959,19 @@
         <v>100</v>
       </c>
       <c r="BX11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC11" s="4">
         <v>21</v>
@@ -3084,10 +2989,10 @@
         <v>34</v>
       </c>
       <c r="CH11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ11" s="7">
         <v>0</v>
@@ -3095,136 +3000,130 @@
       <c r="CK11" s="7">
         <v>0</v>
       </c>
-      <c r="CL11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="CM11" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1077</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="5">
         <v>65</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="U12" s="5">
         <v>8</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Y12" s="5">
         <v>1</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AA12" s="5">
         <v>0</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF12" s="4">
         <v>2006</v>
       </c>
       <c r="AG12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AK12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL12" s="4" t="s">
+      <c r="AM12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM12" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP12" s="4">
         <v>4.5</v>
@@ -3239,22 +3138,22 @@
         <v>245</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU12" s="4">
         <v>3360</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ12" s="4">
         <v>3</v>
@@ -3329,19 +3228,19 @@
         <v>25</v>
       </c>
       <c r="BX12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC12" s="4">
         <v>10</v>
@@ -3359,10 +3258,10 @@
         <v>4</v>
       </c>
       <c r="CH12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ12" s="7">
         <v>0</v>
@@ -3370,136 +3269,130 @@
       <c r="CK12" s="7">
         <v>0</v>
       </c>
-      <c r="CL12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM12" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1077</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="Q13" s="5">
         <v>65</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="U13" s="5">
         <v>8</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Y13" s="5">
         <v>1</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AA13" s="5">
         <v>0</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF13" s="4">
         <v>2006</v>
       </c>
       <c r="AG13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AM13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM13" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP13" s="4">
         <v>4.5</v>
@@ -3514,22 +3407,22 @@
         <v>245</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU13" s="4">
         <v>3360</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ13" s="4">
         <v>3</v>
@@ -3604,19 +3497,19 @@
         <v>30</v>
       </c>
       <c r="BX13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC13" s="4">
         <v>5</v>
@@ -3634,10 +3527,10 @@
         <v>7</v>
       </c>
       <c r="CH13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ13" s="7">
         <v>0</v>
@@ -3645,136 +3538,130 @@
       <c r="CK13" s="7">
         <v>0</v>
       </c>
-      <c r="CL13" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="CM13" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1077</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="5">
         <v>65</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="U14" s="5">
         <v>8</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Y14" s="5">
         <v>1</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AA14" s="5">
         <v>0</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF14" s="4">
         <v>2006</v>
       </c>
       <c r="AG14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AI14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AK14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AM14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM14" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP14" s="4">
         <v>4.5</v>
@@ -3789,22 +3676,22 @@
         <v>245</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU14" s="4">
         <v>3360</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ14" s="4">
         <v>3</v>
@@ -3879,19 +3766,19 @@
         <v>0</v>
       </c>
       <c r="BX14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC14" s="4">
         <v>0</v>
@@ -3909,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="CH14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ14" s="7">
         <v>0</v>
@@ -3920,85 +3807,79 @@
       <c r="CK14" s="7">
         <v>0</v>
       </c>
-      <c r="CL14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="CM14" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1077</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="5">
         <v>65</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U15" s="5">
         <v>4</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
@@ -4010,46 +3891,46 @@
         <v>0</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF15" s="4">
         <v>2006</v>
       </c>
       <c r="AG15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL15" s="4" t="s">
+      <c r="AM15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM15" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP15" s="4">
         <v>4.5</v>
@@ -4064,22 +3945,22 @@
         <v>245</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU15" s="4">
         <v>3360</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ15" s="4">
         <v>3</v>
@@ -4154,19 +4035,19 @@
         <v>105</v>
       </c>
       <c r="BX15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC15" s="4">
         <v>13</v>
@@ -4184,10 +4065,10 @@
         <v>19</v>
       </c>
       <c r="CH15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ15" s="7">
         <v>0</v>
@@ -4195,85 +4076,79 @@
       <c r="CK15" s="7">
         <v>0</v>
       </c>
-      <c r="CL15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="CM15" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1077</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="5">
         <v>65</v>
       </c>
       <c r="R16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="T16" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U16" s="5">
         <v>2</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Y16" s="5">
         <v>0</v>
@@ -4285,46 +4160,46 @@
         <v>0</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF16" s="4">
         <v>2006</v>
       </c>
       <c r="AG16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM16" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP16" s="4">
         <v>4.5</v>
@@ -4339,22 +4214,22 @@
         <v>245</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU16" s="4">
         <v>3360</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ16" s="4">
         <v>3</v>
@@ -4429,19 +4304,19 @@
         <v>20</v>
       </c>
       <c r="BX16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC16" s="4">
         <v>0</v>
@@ -4459,10 +4334,10 @@
         <v>2</v>
       </c>
       <c r="CH16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ16" s="7">
         <v>0</v>
@@ -4470,85 +4345,79 @@
       <c r="CK16" s="7">
         <v>0</v>
       </c>
-      <c r="CL16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="CM16" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1077</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="5">
         <v>65</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U17" s="5">
         <v>4</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="Y17" s="5">
         <v>0</v>
@@ -4560,46 +4429,46 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF17" s="4">
         <v>2006</v>
       </c>
       <c r="AG17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AI17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AK17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AM17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM17" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP17" s="4">
         <v>4.5</v>
@@ -4614,22 +4483,22 @@
         <v>245</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU17" s="4">
         <v>3360</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ17" s="4">
         <v>3</v>
@@ -4704,19 +4573,19 @@
         <v>30</v>
       </c>
       <c r="BX17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC17" s="4">
         <v>1</v>
@@ -4734,10 +4603,10 @@
         <v>1</v>
       </c>
       <c r="CH17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ17" s="7">
         <v>0</v>
@@ -4745,85 +4614,79 @@
       <c r="CK17" s="7">
         <v>0</v>
       </c>
-      <c r="CL17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="CM17" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1077</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="P18" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="5">
         <v>65</v>
       </c>
       <c r="R18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U18" s="5">
         <v>2</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -4835,46 +4698,46 @@
         <v>0</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF18" s="4">
         <v>2006</v>
       </c>
       <c r="AG18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AI18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
+      <c r="AK18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK18" s="4" t="s">
+      <c r="AL18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL18" s="4" t="s">
+      <c r="AM18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM18" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP18" s="4">
         <v>4.5</v>
@@ -4889,22 +4752,22 @@
         <v>245</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU18" s="4">
         <v>3360</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ18" s="4">
         <v>3</v>
@@ -4979,19 +4842,19 @@
         <v>45</v>
       </c>
       <c r="BX18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC18" s="4">
         <v>2</v>
@@ -5009,10 +4872,10 @@
         <v>5</v>
       </c>
       <c r="CH18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ18" s="7">
         <v>0</v>
@@ -5020,136 +4883,130 @@
       <c r="CK18" s="7">
         <v>0</v>
       </c>
-      <c r="CL18" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM18" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1077</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="J19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="5">
         <v>65</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="U19" s="5">
         <v>1</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Y19" s="5">
         <v>1</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AA19" s="5">
         <v>0</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF19" s="4">
         <v>2006</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK19" s="4" t="s">
+      <c r="AL19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL19" s="4" t="s">
+      <c r="AM19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM19" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP19" s="4">
         <v>4.5</v>
@@ -5164,22 +5021,22 @@
         <v>251</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU19" s="4">
         <v>3360</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ19" s="4">
         <v>3</v>
@@ -5254,19 +5111,19 @@
         <v>45</v>
       </c>
       <c r="BX19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC19" s="4">
         <v>1</v>
@@ -5284,10 +5141,10 @@
         <v>6</v>
       </c>
       <c r="CH19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ19" s="7">
         <v>0</v>
@@ -5295,136 +5152,130 @@
       <c r="CK19" s="7">
         <v>0</v>
       </c>
-      <c r="CL19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM19" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1077</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="J20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="5">
         <v>65</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="U20" s="5">
         <v>1</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Y20" s="5">
         <v>1</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AA20" s="5">
         <v>0</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF20" s="4">
         <v>2006</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK20" s="4" t="s">
+      <c r="AL20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL20" s="4" t="s">
+      <c r="AM20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM20" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP20" s="4">
         <v>4.5</v>
@@ -5439,22 +5290,22 @@
         <v>251</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU20" s="4">
         <v>3360</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ20" s="4">
         <v>3</v>
@@ -5529,19 +5380,19 @@
         <v>10</v>
       </c>
       <c r="BX20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC20" s="4">
         <v>2</v>
@@ -5559,10 +5410,10 @@
         <v>2</v>
       </c>
       <c r="CH20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ20" s="7">
         <v>0</v>
@@ -5570,136 +5421,130 @@
       <c r="CK20" s="7">
         <v>0</v>
       </c>
-      <c r="CL20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM20" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1077</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="Q21" s="5">
         <v>65</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="U21" s="5">
         <v>1</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Y21" s="5">
         <v>1</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AA21" s="5">
         <v>0</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF21" s="4">
         <v>2006</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK21" s="4" t="s">
+      <c r="AL21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL21" s="4" t="s">
+      <c r="AM21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM21" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP21" s="4">
         <v>4.5</v>
@@ -5714,22 +5559,22 @@
         <v>251</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU21" s="4">
         <v>3360</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ21" s="4">
         <v>3</v>
@@ -5804,19 +5649,19 @@
         <v>0</v>
       </c>
       <c r="BX21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC21" s="4">
         <v>1</v>
@@ -5834,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="CH21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ21" s="7">
         <v>0</v>
@@ -5845,85 +5690,79 @@
       <c r="CK21" s="7">
         <v>0</v>
       </c>
-      <c r="CL21" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CM21" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1077</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="M22" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="5">
         <v>65</v>
       </c>
       <c r="R22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="T22" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U22" s="5">
         <v>8</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="Y22" s="5">
         <v>0</v>
@@ -5935,46 +5774,46 @@
         <v>0</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AF22" s="4">
         <v>2008</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK22" s="4" t="s">
+      <c r="AL22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL22" s="4" t="s">
+      <c r="AM22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM22" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP22" s="4">
         <v>4.5</v>
@@ -5989,22 +5828,22 @@
         <v>245</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU22" s="4">
         <v>3360</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ22" s="4">
         <v>3</v>
@@ -6079,19 +5918,19 @@
         <v>20</v>
       </c>
       <c r="BX22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC22" s="4">
         <v>0</v>
@@ -6109,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="CH22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ22" s="7">
         <v>0</v>
@@ -6120,85 +5959,79 @@
       <c r="CK22" s="7">
         <v>0</v>
       </c>
-      <c r="CL22" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="CM22" s="4" t="s">
-        <v>203</v>
-      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1077</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="5">
         <v>65</v>
       </c>
       <c r="R23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="T23" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U23" s="5">
         <v>8</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="Y23" s="5">
         <v>0</v>
@@ -6210,46 +6043,46 @@
         <v>0</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AF23" s="4">
         <v>2008</v>
       </c>
       <c r="AG23" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK23" s="4" t="s">
+      <c r="AL23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL23" s="4" t="s">
+      <c r="AM23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM23" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP23" s="4">
         <v>4.5</v>
@@ -6264,22 +6097,22 @@
         <v>245</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU23" s="4">
         <v>3360</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ23" s="4">
         <v>3</v>
@@ -6354,19 +6187,19 @@
         <v>15</v>
       </c>
       <c r="BX23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC23" s="4">
         <v>0</v>
@@ -6384,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="CH23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ23" s="7">
         <v>0</v>
@@ -6395,85 +6228,79 @@
       <c r="CK23" s="7">
         <v>0</v>
       </c>
-      <c r="CL23" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="CM23" s="4" t="s">
-        <v>203</v>
-      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1077</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="M24" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="5">
         <v>65</v>
       </c>
       <c r="R24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="T24" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U24" s="5">
         <v>8</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="Y24" s="5">
         <v>0</v>
@@ -6485,46 +6312,46 @@
         <v>0</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AF24" s="4">
         <v>2008</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK24" s="4" t="s">
+      <c r="AL24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL24" s="4" t="s">
+      <c r="AM24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM24" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP24" s="4">
         <v>4.5</v>
@@ -6539,22 +6366,22 @@
         <v>245</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU24" s="4">
         <v>3360</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ24" s="4">
         <v>3</v>
@@ -6629,19 +6456,19 @@
         <v>120</v>
       </c>
       <c r="BX24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC24" s="4">
         <v>0</v>
@@ -6659,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="CH24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ24" s="7">
         <v>0</v>
@@ -6670,85 +6497,79 @@
       <c r="CK24" s="7">
         <v>0</v>
       </c>
-      <c r="CL24" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="CM24" s="4" t="s">
-        <v>203</v>
-      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1077</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="M25" s="4" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="5">
         <v>65</v>
       </c>
       <c r="R25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="U25" s="5">
         <v>8</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="Y25" s="5">
         <v>0</v>
@@ -6760,46 +6581,46 @@
         <v>0</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AF25" s="4">
         <v>2008</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK25" s="4" t="s">
+      <c r="AL25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AL25" s="4" t="s">
+      <c r="AM25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM25" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="AN25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AP25" s="4">
         <v>4.5</v>
@@ -6814,22 +6635,22 @@
         <v>245</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU25" s="4">
         <v>3360</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ25" s="4">
         <v>3</v>
@@ -6904,19 +6725,19 @@
         <v>10</v>
       </c>
       <c r="BX25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BY25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BZ25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CA25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CC25" s="4">
         <v>0</v>
@@ -6934,22 +6755,16 @@
         <v>0</v>
       </c>
       <c r="CH25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CI25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CJ25" s="7">
         <v>0</v>
       </c>
       <c r="CK25" s="7">
         <v>0</v>
-      </c>
-      <c r="CL25" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="CM25" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
